--- a/bio_diversity/static/test/parser_test_files/test-treatment.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-treatment.xlsx
@@ -24,18 +24,268 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eg. Formaldehyde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 6
+Not 6''</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (Gal), (ml) or (kg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1:500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Stoyel, Quentin</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1999</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. Jan</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Eg. Formaldehyde</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 6
+Not 6''</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Units can be set to (Gal), (ml) or (kg).</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1:500</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. 1.25</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Eg. AB, CD</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
   <si>
     <t>Treatment Type</t>
   </si>
   <si>
-    <t>Pond Level During Treatment</t>
-  </si>
-  <si>
-    <t>Amount</t>
-  </si>
-  <si>
     <t>Concentration</t>
   </si>
   <si>
@@ -48,18 +298,12 @@
     <t>Day</t>
   </si>
   <si>
-    <t>Trough</t>
-  </si>
-  <si>
     <t>Tank</t>
   </si>
   <si>
     <t>Duration (hours)</t>
   </si>
   <si>
-    <t>Duration (mins)</t>
-  </si>
-  <si>
     <t>Initials</t>
   </si>
   <si>
@@ -84,16 +328,16 @@
     <t>QS</t>
   </si>
   <si>
-    <t>Pond Level During Treatment (Inches)</t>
-  </si>
-  <si>
     <t>Amount (ml)</t>
   </si>
   <si>
-    <t>Amount (Kg)</t>
-  </si>
-  <si>
-    <t>Amount (Gal)</t>
+    <t>Water Level During Treatment (Inches)</t>
+  </si>
+  <si>
+    <t>Amoun (Gal)</t>
+  </si>
+  <si>
+    <t>Amount (kg)</t>
   </si>
 </sst>
 </file>
@@ -103,7 +347,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +369,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -470,11 +726,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -501,42 +757,42 @@
       <c r="K2" s="4"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -544,16 +800,16 @@
         <v>2021</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>5</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
         <v>6</v>
@@ -564,13 +820,13 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K4" s="1">
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -578,16 +834,16 @@
         <v>2021</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -596,13 +852,13 @@
         <v>700</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K5">
         <v>3</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -617,15 +873,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,7 +896,7 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -648,39 +905,45 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>11</v>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -692,5 +955,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bio_diversity/static/test/parser_test_files/test-treatment.xlsx
+++ b/bio_diversity/static/test/parser_test_files/test-treatment.xlsx
@@ -1,36 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stoyelq\Desktop\Work\dm_apps\dm_apps\bio_diversity\static\test\parser_test_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E5DA52-8E8E-41E4-AA16-F2358683BCE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27540" windowHeight="7740" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ponds" sheetId="1" r:id="rId1"/>
     <sheet name="Eggrooms" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stoyel, Quentin</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -56,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -69,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -82,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -135,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -153,12 +163,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stoyel, Quentin</author>
   </authors>
   <commentList>
-    <comment ref="A3" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -171,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -197,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -210,7 +220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F3" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G3" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -250,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="0" shapeId="0">
+    <comment ref="K2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -263,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -343,7 +353,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -419,18 +429,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -726,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,52 +750,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -819,7 +812,7 @@
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K4" s="1">
@@ -851,7 +844,7 @@
       <c r="I5">
         <v>700</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K5">
@@ -862,13 +855,13 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J6" s="9"/>
+      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J7" s="9"/>
+      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J8" s="9"/>
+      <c r="J8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -878,11 +871,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,50 +889,41 @@
     <col min="10" max="10" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+    <row r="2" spans="1:12" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -948,7 +932,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="3"/>
+      <c r="H4" s="2"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
